--- a/StructureDefinition-bc-patient-business-dates.xlsx
+++ b/StructureDefinition-bc-patient-business-dates.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-27T20:25:30+00:00</t>
+    <t>2021-10-28T17:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-business-dates.xlsx
+++ b/StructureDefinition-bc-patient-business-dates.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://moh.fhir.org/moh-hcim/StructureDefinition/bc-patient-business-dates</t>
+    <t>http://moh.fhir/bc-client/StructureDefinition/bc-patient-business-dates</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-28T17:05:20+00:00</t>
+    <t>2021-11-05T15:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
